--- a/biology/Zoologie/Calliophis_bivirgata/Calliophis_bivirgata.xlsx
+++ b/biology/Zoologie/Calliophis_bivirgata/Calliophis_bivirgata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calliophis bivirgata ou serpent corail bleu est une espèce de serpents de la famille des Elapidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calliophis bivirgata ou serpent corail bleu est une espèce de serpents de la famille des Elapidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le serpent corail bleu se trouve dans les zones montagneuses couvertes de forêts tropicales.
-Cette espèce se rencontre en Birmanie, en Thaïlande, au Cambodge, en Malaisie, à Singapour, au Brunei et en Indonésie[1].
+Cette espèce se rencontre en Birmanie, en Thaïlande, au Cambodge, en Malaisie, à Singapour, au Brunei et en Indonésie.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un serpent terrestre venimeux et ovipare[1]. Il mesure de 1,20 à 1,40 m.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un serpent terrestre venimeux et ovipare. Il mesure de 1,20 à 1,40 m.
 Son dos est bleu nuit, presque noir ; son ventre, sa queue et sa tête sont rouge orangé.
-Il mange des serpents, y compris ceux de sa propre espèce, des lézards, des grenouilles et des rongeurs[2].
+Il mange des serpents, y compris ceux de sa propre espèce, des lézards, des grenouilles et des rongeurs.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (13 février 2014)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (13 février 2014) :
 Calliophis bivirgata flaviceps (Cantor, 1839)
 Calliophis bivirgata bivirgata (Boie, 1827)
 Calliophis bivirgata tetrataenia (Bleeker, 1859)</t>
@@ -609,7 +627,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bleeker, 1859 : Reptilien van Sintang. Natuurkundig Tijdschrift voor Nederlandsch Indie, vol. 20, p. 200-201 (texte intégral).
 Boie, 1827 : Bemerkungen über Merrem's Versuch eines Systems der Amphibien, 1. Lieferung: Ophidier.  Isis von Oken, Jena, vol. 20, p. 508-566 (texte intégral)
